--- a/biology/Botanique/Cyanoboletus_pulverulentus/Cyanoboletus_pulverulentus.xlsx
+++ b/biology/Botanique/Cyanoboletus_pulverulentus/Cyanoboletus_pulverulentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet pulvérulent, Bolet saphir
 Cyanoboletus pulverulentus, le Bolet pulvérulent, anciennement Boletus pulverulentus, est une espèce de champignons basidiomycètes de la famille des Boletacées. Il est caractérisé par son bleuissement extrême à la coupe ou à la pression.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau, d’un brun chocolat, velouté, est lubrifié par l’humidité. Sa couleur contraste avec le jaune citron des pores. À maturité, les pores se colorent d’un jaune doré encore plus lumineux.
 Le stipe, jaune plus clair, se teinte parfois de brun vers la base et se termine par un appendicule. Il est orné d’un fin réseau concolore à la base du chapeau.
@@ -546,9 +560,11 @@
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanoboletus pulverulentus var. sublateritius, variété carmin, chapeau d'abord carmin plus ou moins pâle, rose-rouge, avec la marge jaune puis entièrement rouge carmin. Pores jaune vif à jaune bouton d'or, parfois plus jaune citron, devenant bleu à bleu-noir au toucher. Stipe atténué-fusiforme vers la base, jaune d'or vif au sommet puis progressivement jaune orangé mandarine vif, puis rouge carmin à cinabre vers la base, bleuissant très fortement au toucher, blanchâtre à l'extrémité. Chair marbrée de jaune, rougeâtre ferrugineux vers la base du stipe, bleuissante. Réaction iodée ++. Sur sables calcifères, sous Quercus tauza et Q. pedunculata, avec Pinus pinaster et Carpinus betulus non loin. Spores 11,5-14 x 4-5 μm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanoboletus pulverulentus var. sublateritius, variété carmin, chapeau d'abord carmin plus ou moins pâle, rose-rouge, avec la marge jaune puis entièrement rouge carmin. Pores jaune vif à jaune bouton d'or, parfois plus jaune citron, devenant bleu à bleu-noir au toucher. Stipe atténué-fusiforme vers la base, jaune d'or vif au sommet puis progressivement jaune orangé mandarine vif, puis rouge carmin à cinabre vers la base, bleuissant très fortement au toucher, blanchâtre à l'extrémité. Chair marbrée de jaune, rougeâtre ferrugineux vers la base du stipe, bleuissante. Réaction iodée ++. Sur sables calcifères, sous Quercus tauza et Q. pedunculata, avec Pinus pinaster et Carpinus betulus non loin. Spores 11,5-14 x 4-5 μm.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon peut être confondu par sa taille et sa silhouette avec le genre Xerocomus. Il rappelle également Butyriboletus appendiculatus. Un doute persiste cependant, en raison de la réaction instantanée de toutes les parties du carpophore du Cyanoboletus au toucher comme à la coupe.
 Marchand affirme que notre champignon peut être « appelé par erreur B. radicans » et confondu avec lui : « Ainsi Quélet trouve le radicans qu’il décrit semblable à [...] badius, et Bresadola dans sa Pl.916, sous le nom de radicans dessine de façon très reconnaissable le bolet pulvérulent. Ces deux dernières espèces possèdent, certes, un pied terminé en pointe, mais seul B. radicans offre un pied à base bulbeuse que prolonge une pseudorrhrise. Ajoutons que sa chair bleuit à peine[réf. souhaitée]. »
@@ -610,7 +628,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elle varie selon les auteurs de « médiocre à très bonne ». Ce bolet affectionne les climats froids, humides mais peut supporter aussi la sécheresse méditerranéenne et les périodes caniculaires.
 Dans une étude tchèque de 2018, 39 spécimens de Cyanoboletus pulverulentus ont été analysés. Il en résulte que ce champignon accumule de l'arsenic à partir du substrat, indépendamment de la qualité du sol. Selon l’étude, environ 80% du composé d'arsenic accumulé dans le carpophore est concentré dans les tubes.
@@ -618,7 +638,7 @@
 Le Bolet pulvérulent peut toujours être admis comme champignon comestible, avec ces précautions :
 Il est recommandé de ne pas consommer plus de 100 g de champignon par repas.
 En raison de l'accumulation préférentielle d'arsenic dans cette partie, les tubes doivent être enlevés.
-Ce bolet ne devrait être consommé que quelques fois dans l’année[2].</t>
+Ce bolet ne devrait être consommé que quelques fois dans l’année.</t>
         </is>
       </c>
     </row>
@@ -646,9 +666,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Marchand, localisé sous « feuillus, bois, à découvert, aux orées, dans les clairières, les allées de parc, sur les bords de route, en particulier sous les chênes »[3], ou encore « forêts, parcs, lisières » pour Courtecuisse et Duhem[4]. Phillips ajoute les sentiers herbeux de sapins, de châtaigniers et de hêtres[5]. Eyssartier et Roux le localisent « surtout sous les  pins, plus rares sous feuillus, sur sol non calcaire[6]. »
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Marchand, localisé sous « feuillus, bois, à découvert, aux orées, dans les clairières, les allées de parc, sur les bords de route, en particulier sous les chênes », ou encore « forêts, parcs, lisières » pour Courtecuisse et Duhem. Phillips ajoute les sentiers herbeux de sapins, de châtaigniers et de hêtres. Eyssartier et Roux le localisent « surtout sous les  pins, plus rares sous feuillus, sur sol non calcaire. »
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Courtecuisse le situe en Autriche, Belgique, Suisse, Allemagne, Danemark, France, Grande-Bretagne, Hongrie Italie, Irlande, Tchécoslovaquie (République tchèque et Slovaquie), Lituanie, Grand-Duché de Luxembourg, Macédoine du Nord, (ex-Yougoslavie), Norvège, Pays-Bas, Portugal, Pologne, Roumanie, Russie (partie occidentale), Slovénie (ex-Yougoslavie), et en Ukraine.
 Ce champignon est représenté en France : la cartographie « Mycodb » le fait apparaître dans les départements suivants : Bas-Rhin, Loire-Atlantique, Maine-et-Loire, Manche, Côtes-d'Armor, Cantal, Saône-et-Loire, Loiret, Puy-de-Dôme, Yonne, Haute-Loire, Lot, Finistère, et Corse.
